--- a/biology/Botanique/Swartzia_prouacensis/Swartzia_prouacensis.xlsx
+++ b/biology/Botanique/Swartzia_prouacensis/Swartzia_prouacensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Swartzia prouacensis est une espèce de plantes à fleurs de la famille des Fabaceae. C'est un arbre néotropical, endémique de Guyane et du Suriname.
 L'épithète spécifique prouacensis provient du nom du fleuve Approuague.
-En Guyane, c'est une des espèces connues sous les noms de Boco, Boco marbré, Bois de fer, Bois boco, Faux bois boco (Créole), Boko, Aye-udu (Nenge tongo)[2], Muira jibóia (Portugais), Ariyana'ë Kali'na), ãsivari (Palikur), Tunu'ï (Wayãpi)[3],[4].
-Au Suriname, on l'appelle Ijzerhart (Hollandais), Gandoe (Sranan tongo), Wajewoe (Saramaka), Itikiboroballi hororadikoro (Arawak), Ietjoetanoe alianao, Aliana oeu, Wepetano tamoene (Karib)[5].
+En Guyane, c'est une des espèces connues sous les noms de Boco, Boco marbré, Bois de fer, Bois boco, Faux bois boco (Créole), Boko, Aye-udu (Nenge tongo), Muira jibóia (Portugais), Ariyana'ë Kali'na), ãsivari (Palikur), Tunu'ï (Wayãpi),.
+Au Suriname, on l'appelle Ijzerhart (Hollandais), Gandoe (Sranan tongo), Wajewoe (Saramaka), Itikiboroballi hororadikoro (Arawak), Ietjoetanoe alianao, Aliana oeu, Wepetano tamoene (Karib).
 Au Guyana, les arbres de ce type sont appelés Womara.
 </t>
         </is>
@@ -515,9 +527,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia prouacensis est une espèce déterminante ZNIEFF en Guyane[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia prouacensis est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Swartzia prouacensis est un arbre haut de 14-30 m pour 19-25 cm de diamètre. Le tronc est droit, cylindrique. L'écorce gris brunâtre foncé, à petites écailles rectangulaires. Les rameaux sont glabres. 
 Les feuilles sont composées unifoliées, portées par un pétiole subcylindrique long de 6-16 mm (parfois absent).
@@ -568,7 +584,7 @@
 Le fruit est une gousse déhiscente ovale, légèrement comprimée, apiculée, coriace, glabre, contenant 1-2 graines, longue de 2-3 cm pour 1,5-2(2,5) cm de large et 1-1,5 cm d'épaisseur. 
 La graine est jaune ou brun clair, de forme ovoïde, longue de 1 à 2 cm, avec un arille lacéré blanc terne. 
 Elle est reliée au placenta par un funicule allongé, filiforme, long de 1,5-3 m, enroulé dans la gousse non ouverte. 
-À l'ouverture de la gousse, la graine reste généralement suspendue à l'extrémité du funicule[5],[2].
+À l'ouverture de la gousse, la graine reste généralement suspendue à l'extrémité du funicule,.
 </t>
         </is>
       </c>
@@ -597,9 +613,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia prouacensis est une espèce endémique de Guyane et du Suriname[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia prouacensis est une espèce endémique de Guyane et du Suriname.
 </t>
         </is>
       </c>
@@ -628,20 +646,22 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Swartzia prouacensis affectionne les forêts de terre ferme en plaine[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Swartzia prouacensis affectionne les forêts de terre ferme en plaine.
 Swartzia prouacensis a fait l'objet d'études sur
-les propriétés mécaniques de son bois[7],[8],[9],[10],
-les facteurs physico-chimiques à l'origine de la durabilité de son bois[11],
-sa stratégie de captation de la lumière[12],
-l'influence de la luminosité sur sa croissance[13],
-son mode de croissance dans le milieu forestier[14],
-sa résistance aux dégâts de l'exploitation forestière[15],
-ses acides aminés non-protéiques[16],
-ses préférences pédologiques[17],
-son analyse histologique[18],
-la physiologie de sa fixation de l'azote[19],
+les propriétés mécaniques de son bois
+les facteurs physico-chimiques à l'origine de la durabilité de son bois,
+sa stratégie de captation de la lumière,
+l'influence de la luminosité sur sa croissance,
+son mode de croissance dans le milieu forestier,
+sa résistance aux dégâts de l'exploitation forestière,
+ses acides aminés non-protéiques,
+ses préférences pédologiques,
+son analyse histologique,
+la physiologie de sa fixation de l'azote,
 etc...</t>
         </is>
       </c>
@@ -670,10 +690,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Swartzia prouacensis est brun foncé à brun noir, avec un aubier jaune orangé, extrêmement dur, lourd (densité de 1,2 à 1,3), difficile à scier, fendif au séchage, résistant aux termites et aux champignons. On utilise ce bois précieux en ébénisterie, marquetterie, tabletterie, pour des objets d'art ou pour fabriquer des mortiers et pilons[20], ou de la vaisselle[3],[21],[4].
-Les Aluku font des décoctions de bois de Swartzia prouacensis administrées en bain « défatiguant »[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Swartzia prouacensis est brun foncé à brun noir, avec un aubier jaune orangé, extrêmement dur, lourd (densité de 1,2 à 1,3), difficile à scier, fendif au séchage, résistant aux termites et aux champignons. On utilise ce bois précieux en ébénisterie, marquetterie, tabletterie, pour des objets d'art ou pour fabriquer des mortiers et pilons, ou de la vaisselle.
+Les Aluku font des décoctions de bois de Swartzia prouacensis administrées en bain « défatiguant ».
 </t>
         </is>
       </c>
@@ -702,9 +724,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Swartzia prouacensis[22] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Swartzia prouacensis : 
 « BOCOA Prouacenſis. (Tabula 391.)
 Arbor trunco ſexaginta-pedali, ad ſummitatem ramoſiſſimo ; ramis redis &amp; declinatis, latè &amp; undique ſparſis, ramulis folioſis. Folia alterna, ampla 5 ovato - oblonga, in acumen longum, obtuſum definentia, glabra, rigida, integerrima, pctiolata. Stipulæ binæ, deciduæ ad baſim petioli.
 Habitat in ſylvis Caux.
